--- a/db/user/query_review_form_이승복.xlsx
+++ b/db/user/query_review_form_이승복.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\lsb_basictraining\db\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C33A948-663D-4CD1-BF35-8E0E9BFB13DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD246DE-9735-4C06-9E57-F9689641232E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,83 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>완료시간이</t>
+          <t>유처에게서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>요청을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시간이</t>
         </r>
         <r>
           <rPr>
@@ -126,6 +202,82 @@
             <charset val="129"/>
           </rPr>
           <t>지났는데</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>요청을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않아</t>
         </r>
         <r>
           <rPr>
@@ -164,25 +316,6 @@
             <charset val="129"/>
           </rPr>
           <t>않은</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="Consolas"/>
-            <family val="3"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>유저</t>
         </r>
         <r>
           <rPr>
@@ -276,7 +409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="199">
   <si>
     <t>SELECT *
 FROM `user`
@@ -1449,56 +1582,6 @@
         <charset val="129"/>
       </rPr>
       <t>상태 갱신</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[pending]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-처리되지 않은 유저의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 업그레이드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 갱신</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2099,17 +2182,6 @@
 SET `tactical_resource_amount` = `tactical_resource_amount` + {tactical_resource},
     `food_resource_amount` = `food_resource_amount` + {food_resource},
     `luxury_resource_amount` = `luxury_resource_amount` + {luxury_resource}
-WHERE `user_id` = {user_id};</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE `user`
-SET `manpower_amount` = {manpower_amount},
-    `tactical_resource_amount` = {tactical_resource_amount},
-    `food_resource_amount` = {food_resource_amount},
-    `luxury_resource_amount` = {luxury_resource_amount},
-    `unit_time` = {unit_time},
-    `last_update` = NOW()
 WHERE `user_id` = {user_id};</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -10460,6 +10532,76 @@
       </rPr>
       <t>*/</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE `user`
+SET `manpower_amount` = `manpower_amount` + {manpower_amount_diff}
+    `appended_manpower` = `appended_manpower` + {appended_manpower_diff}
+    `tactical_resource_amount` = `tactical_resource_amount` + {tactical_resource_amount_diff}
+    `food_resource_amount` = `food_resource_amount` + {food_resource_amount_diff}
+    `luxury_resource_amount` = `luxury_resource_amount` + {luxury_resource_amount_diff}
+    `last_update` = NOW()
+WHERE `user_id` = {user_id};</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[pending]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+처리되지 않은 유저의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업그레이드 갱신</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE FROM `raid`
+WHERE `finish_time` &lt; SUBDATE(NOW(), INTERVAL {expire_date_raid} DAY);</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이드 만료 정보 삭제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10759,22 +10901,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10785,6 +10915,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -11308,13 +11450,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H549"/>
+  <dimension ref="B1:H550"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="D86" sqref="D86"/>
+      <selection pane="bottomRight" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.45"/>
@@ -11376,32 +11518,32 @@
         <v>12</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="391.5" x14ac:dyDescent="0.45">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>180</v>
+      <c r="C11" s="27" t="s">
+        <v>178</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="2:8" ht="58" x14ac:dyDescent="0.45">
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="1" t="s">
         <v>28</v>
       </c>
@@ -11413,8 +11555,8 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8" ht="43.5" x14ac:dyDescent="0.45">
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="1" t="s">
         <v>0</v>
       </c>
@@ -11426,21 +11568,21 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="2:8" ht="43.5" x14ac:dyDescent="0.45">
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="2:8" ht="116" x14ac:dyDescent="0.45">
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
@@ -11452,73 +11594,73 @@
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="2:8" ht="43.5" x14ac:dyDescent="0.45">
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="2:8" ht="43.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="2:8" ht="72.5" x14ac:dyDescent="0.45">
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:8" ht="72.5" x14ac:dyDescent="0.45">
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="2:8" ht="116" x14ac:dyDescent="0.45">
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="1" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="2:8" ht="43.5" x14ac:dyDescent="0.45">
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="1" t="s">
         <v>29</v>
       </c>
@@ -11530,209 +11672,209 @@
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="2:8" ht="72.5" x14ac:dyDescent="0.45">
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="2:8" ht="279.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="2:8" ht="275.5" x14ac:dyDescent="0.45">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>181</v>
+      <c r="C24" s="27" t="s">
+        <v>179</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="8"/>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="2:8" ht="43.5" x14ac:dyDescent="0.45">
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>40</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="8"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="2:8" ht="58" x14ac:dyDescent="0.45">
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="8"/>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="2:8" ht="43.5" x14ac:dyDescent="0.45">
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="8"/>
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="2:8" ht="58" x14ac:dyDescent="0.45">
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="8"/>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="2:8" ht="72.5" x14ac:dyDescent="0.45">
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="8"/>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="2:8" ht="72.5" x14ac:dyDescent="0.45">
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="8"/>
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="2:8" ht="43.5" x14ac:dyDescent="0.45">
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="8"/>
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="2:8" ht="43.5" x14ac:dyDescent="0.45">
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="8"/>
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="2:8" ht="43.5" x14ac:dyDescent="0.45">
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="8"/>
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="2:8" ht="58" x14ac:dyDescent="0.45">
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>143</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="8"/>
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="2:8" ht="58" x14ac:dyDescent="0.45">
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="8"/>
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="2:8" ht="58" x14ac:dyDescent="0.45">
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
     </row>
     <row r="37" spans="2:8" ht="101.5" x14ac:dyDescent="0.45">
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>31</v>
@@ -11745,14 +11887,14 @@
       <c r="B38" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="25" t="s">
-        <v>172</v>
+      <c r="C38" s="21" t="s">
+        <v>170</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="8"/>
@@ -11760,12 +11902,12 @@
     </row>
     <row r="39" spans="2:8" ht="58" x14ac:dyDescent="0.45">
       <c r="B39" s="18"/>
-      <c r="C39" s="26"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="9"/>
@@ -11773,12 +11915,12 @@
     </row>
     <row r="40" spans="2:8" ht="43.5" x14ac:dyDescent="0.45">
       <c r="B40" s="18"/>
-      <c r="C40" s="26"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="9"/>
@@ -11786,12 +11928,12 @@
     </row>
     <row r="41" spans="2:8" ht="43.5" x14ac:dyDescent="0.45">
       <c r="B41" s="18"/>
-      <c r="C41" s="26"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="9"/>
@@ -11799,12 +11941,12 @@
     </row>
     <row r="42" spans="2:8" ht="58" x14ac:dyDescent="0.45">
       <c r="B42" s="18"/>
-      <c r="C42" s="26"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="9"/>
@@ -11814,14 +11956,14 @@
       <c r="B43" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="20" t="s">
-        <v>171</v>
+      <c r="C43" s="19" t="s">
+        <v>169</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="9"/>
@@ -11829,12 +11971,12 @@
     </row>
     <row r="44" spans="2:8" ht="43.5" x14ac:dyDescent="0.45">
       <c r="B44" s="18"/>
-      <c r="C44" s="21"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>42</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="9"/>
@@ -11842,12 +11984,12 @@
     </row>
     <row r="45" spans="2:8" ht="43.5" x14ac:dyDescent="0.45">
       <c r="B45" s="18"/>
-      <c r="C45" s="21"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="9"/>
@@ -11855,12 +11997,12 @@
     </row>
     <row r="46" spans="2:8" ht="72.5" x14ac:dyDescent="0.45">
       <c r="B46" s="18"/>
-      <c r="C46" s="21"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="9"/>
@@ -11868,12 +12010,12 @@
     </row>
     <row r="47" spans="2:8" ht="72.5" x14ac:dyDescent="0.45">
       <c r="B47" s="18"/>
-      <c r="C47" s="21"/>
+      <c r="C47" s="20"/>
       <c r="D47" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="9"/>
@@ -11881,12 +12023,12 @@
     </row>
     <row r="48" spans="2:8" ht="29" x14ac:dyDescent="0.45">
       <c r="B48" s="18"/>
-      <c r="C48" s="21"/>
+      <c r="C48" s="20"/>
       <c r="D48" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="9"/>
@@ -11894,12 +12036,12 @@
     </row>
     <row r="49" spans="2:8" ht="58" x14ac:dyDescent="0.45">
       <c r="B49" s="18"/>
-      <c r="C49" s="21"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="9"/>
@@ -11907,22 +12049,22 @@
     </row>
     <row r="50" spans="2:8" ht="58" x14ac:dyDescent="0.45">
       <c r="B50" s="18"/>
-      <c r="C50" s="21"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>52</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
     </row>
     <row r="51" spans="2:8" ht="101.5" x14ac:dyDescent="0.45">
-      <c r="B51" s="19"/>
-      <c r="C51" s="22"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>30</v>
@@ -11935,14 +12077,14 @@
       <c r="B52" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="20" t="s">
-        <v>135</v>
+      <c r="C52" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="D52" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="15" t="s">
         <v>46</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>47</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="9"/>
@@ -11950,12 +12092,12 @@
     </row>
     <row r="53" spans="2:8" ht="72.5" x14ac:dyDescent="0.45">
       <c r="B53" s="18"/>
-      <c r="C53" s="21"/>
+      <c r="C53" s="20"/>
       <c r="D53" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="9"/>
@@ -11963,12 +12105,12 @@
     </row>
     <row r="54" spans="2:8" ht="110" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="18"/>
-      <c r="C54" s="21"/>
+      <c r="C54" s="20"/>
       <c r="D54" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="9"/>
@@ -11978,14 +12120,14 @@
       <c r="B55" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="20" t="s">
-        <v>139</v>
+      <c r="C55" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="9"/>
@@ -11993,12 +12135,12 @@
     </row>
     <row r="56" spans="2:8" ht="43.5" x14ac:dyDescent="0.45">
       <c r="B56" s="18"/>
-      <c r="C56" s="21"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="9"/>
@@ -12006,12 +12148,12 @@
     </row>
     <row r="57" spans="2:8" ht="72.5" x14ac:dyDescent="0.45">
       <c r="B57" s="18"/>
-      <c r="C57" s="21"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="9"/>
@@ -12019,12 +12161,12 @@
     </row>
     <row r="58" spans="2:8" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="18"/>
-      <c r="C58" s="21"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="9"/>
@@ -12034,48 +12176,48 @@
       <c r="B59" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="25" t="s">
-        <v>158</v>
+      <c r="C59" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="D59" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>54</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H59" s="16" t="s">
         <v>69</v>
-      </c>
-      <c r="H59" s="16" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="72.5" x14ac:dyDescent="0.45">
       <c r="B60" s="18"/>
-      <c r="C60" s="26"/>
+      <c r="C60" s="22"/>
       <c r="D60" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H60" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="58" x14ac:dyDescent="0.45">
       <c r="B61" s="18"/>
-      <c r="C61" s="26"/>
+      <c r="C61" s="22"/>
       <c r="D61" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="8"/>
@@ -12083,12 +12225,12 @@
     </row>
     <row r="62" spans="2:8" ht="43.5" x14ac:dyDescent="0.45">
       <c r="B62" s="18"/>
-      <c r="C62" s="26"/>
+      <c r="C62" s="22"/>
       <c r="D62" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="8"/>
@@ -12096,12 +12238,12 @@
     </row>
     <row r="63" spans="2:8" ht="29" x14ac:dyDescent="0.45">
       <c r="B63" s="18"/>
-      <c r="C63" s="26"/>
+      <c r="C63" s="22"/>
       <c r="D63" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="8"/>
@@ -12109,12 +12251,12 @@
     </row>
     <row r="64" spans="2:8" ht="29" x14ac:dyDescent="0.45">
       <c r="B64" s="18"/>
-      <c r="C64" s="26"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="8"/>
@@ -12122,12 +12264,12 @@
     </row>
     <row r="65" spans="2:8" ht="43.5" x14ac:dyDescent="0.45">
       <c r="B65" s="18"/>
-      <c r="C65" s="26"/>
+      <c r="C65" s="22"/>
       <c r="D65" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="8"/>
@@ -12135,12 +12277,12 @@
     </row>
     <row r="66" spans="2:8" ht="43.5" x14ac:dyDescent="0.45">
       <c r="B66" s="18"/>
-      <c r="C66" s="26"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="8"/>
@@ -12148,12 +12290,12 @@
     </row>
     <row r="67" spans="2:8" ht="43.5" x14ac:dyDescent="0.45">
       <c r="B67" s="18"/>
-      <c r="C67" s="26"/>
+      <c r="C67" s="22"/>
       <c r="D67" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="8"/>
@@ -12161,12 +12303,12 @@
     </row>
     <row r="68" spans="2:8" ht="43.5" x14ac:dyDescent="0.45">
       <c r="B68" s="18"/>
-      <c r="C68" s="26"/>
+      <c r="C68" s="22"/>
       <c r="D68" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="8"/>
@@ -12174,12 +12316,12 @@
     </row>
     <row r="69" spans="2:8" ht="29" x14ac:dyDescent="0.45">
       <c r="B69" s="18"/>
-      <c r="C69" s="26"/>
+      <c r="C69" s="22"/>
       <c r="D69" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="8"/>
@@ -12187,12 +12329,12 @@
     </row>
     <row r="70" spans="2:8" ht="58" x14ac:dyDescent="0.45">
       <c r="B70" s="18"/>
-      <c r="C70" s="26"/>
+      <c r="C70" s="22"/>
       <c r="D70" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="8"/>
@@ -12200,9 +12342,9 @@
     </row>
     <row r="71" spans="2:8" ht="58" x14ac:dyDescent="0.45">
       <c r="B71" s="18"/>
-      <c r="C71" s="26"/>
+      <c r="C71" s="22"/>
       <c r="D71" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>27</v>
@@ -12213,9 +12355,9 @@
     </row>
     <row r="72" spans="2:8" ht="58" x14ac:dyDescent="0.45">
       <c r="B72" s="18"/>
-      <c r="C72" s="26"/>
+      <c r="C72" s="22"/>
       <c r="D72" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>25</v>
@@ -12226,12 +12368,12 @@
     </row>
     <row r="73" spans="2:8" ht="58" x14ac:dyDescent="0.45">
       <c r="B73" s="18"/>
-      <c r="C73" s="26"/>
+      <c r="C73" s="22"/>
       <c r="D73" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="8"/>
@@ -12241,31 +12383,31 @@
       <c r="B74" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C74" s="25" t="s">
-        <v>195</v>
+      <c r="C74" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H74" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="H74" s="15" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="58" x14ac:dyDescent="0.45">
       <c r="B75" s="18"/>
-      <c r="C75" s="26"/>
+      <c r="C75" s="22"/>
       <c r="D75" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="8"/>
@@ -12273,25 +12415,25 @@
     </row>
     <row r="76" spans="2:8" ht="43.5" x14ac:dyDescent="0.45">
       <c r="B76" s="18"/>
-      <c r="C76" s="26"/>
+      <c r="C76" s="22"/>
       <c r="D76" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="8"/>
       <c r="H76" s="15"/>
     </row>
     <row r="77" spans="2:8" ht="150" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="19"/>
-      <c r="C77" s="27"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="23"/>
       <c r="D77" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E77" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>72</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="9"/>
@@ -12301,69 +12443,69 @@
       <c r="B78" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="25" t="s">
-        <v>152</v>
+      <c r="C78" s="21" t="s">
+        <v>150</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="101.5" x14ac:dyDescent="0.45">
       <c r="B79" s="18"/>
-      <c r="C79" s="26"/>
+      <c r="C79" s="22"/>
       <c r="D79" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="101.5" x14ac:dyDescent="0.45">
       <c r="B80" s="18"/>
-      <c r="C80" s="26"/>
+      <c r="C80" s="22"/>
       <c r="D80" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="275.5" x14ac:dyDescent="0.45">
       <c r="B81" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="25" t="s">
-        <v>196</v>
+      <c r="C81" s="21" t="s">
+        <v>194</v>
       </c>
       <c r="D81" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E81" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>61</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="9"/>
@@ -12371,12 +12513,12 @@
     </row>
     <row r="82" spans="2:8" ht="43.5" x14ac:dyDescent="0.45">
       <c r="B82" s="18"/>
-      <c r="C82" s="26"/>
+      <c r="C82" s="22"/>
       <c r="D82" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E82" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="9"/>
@@ -12384,25 +12526,25 @@
     </row>
     <row r="83" spans="2:8" ht="58" x14ac:dyDescent="0.45">
       <c r="B83" s="18"/>
-      <c r="C83" s="26"/>
+      <c r="C83" s="22"/>
       <c r="D83" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
     </row>
     <row r="84" spans="2:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="19"/>
-      <c r="C84" s="27"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="23"/>
       <c r="D84" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="9"/>
@@ -12410,39 +12552,43 @@
     </row>
     <row r="85" spans="2:8" ht="101.5" x14ac:dyDescent="0.45">
       <c r="B85" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D85" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="E85" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>177</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="2:8" ht="140" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:8" ht="29" x14ac:dyDescent="0.45">
       <c r="B86" s="18"/>
-      <c r="C86" s="21"/>
+      <c r="C86" s="20"/>
       <c r="D86" s="8" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="2:8" ht="150" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="12"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
+    <row r="87" spans="2:8" ht="140" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="18"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>177</v>
+      </c>
       <c r="F87" s="2"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
@@ -16065,12 +16211,12 @@
       <c r="G489" s="9"/>
       <c r="H489" s="9"/>
     </row>
-    <row r="490" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="490" spans="2:8" ht="150" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B490" s="12"/>
       <c r="C490" s="9"/>
       <c r="D490" s="9"/>
       <c r="E490" s="9"/>
-      <c r="F490" s="9"/>
+      <c r="F490" s="2"/>
       <c r="G490" s="9"/>
       <c r="H490" s="9"/>
     </row>
@@ -16605,20 +16751,17 @@
       <c r="G549" s="9"/>
       <c r="H549" s="9"/>
     </row>
+    <row r="550" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B550" s="12"/>
+      <c r="C550" s="9"/>
+      <c r="D550" s="9"/>
+      <c r="E550" s="9"/>
+      <c r="F550" s="9"/>
+      <c r="G550" s="9"/>
+      <c r="H550" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="B59:B73"/>
-    <mergeCell ref="C59:C73"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:C77"/>
     <mergeCell ref="B43:B51"/>
     <mergeCell ref="C43:C51"/>
     <mergeCell ref="B52:B54"/>
@@ -16629,9 +16772,21 @@
     <mergeCell ref="B24:B37"/>
     <mergeCell ref="B38:B42"/>
     <mergeCell ref="C38:C42"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="B59:B73"/>
+    <mergeCell ref="C59:C73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B81:B84"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E58 E1:E10 E45:E51 E80 E87:E1048576 E12:E17 E21:E23 E31:E37 E66:E69 E41:E42 E71 E74:E77">
+  <conditionalFormatting sqref="E58 E1:E10 E45:E51 E80 E88:E1048576 E12:E17 E21:E23 E31:E37 E66:E69 E41:E42 E71 E74:E77">
     <cfRule type="beginsWith" dxfId="33" priority="43" operator="beginsWith" text="[pending]">
       <formula>LEFT(E1,LEN("[pending]"))="[pending]"</formula>
     </cfRule>
@@ -16751,7 +16906,7 @@
       <formula>LEFT(E78,LEN("[pending]"))="[pending]"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85:E86">
+  <conditionalFormatting sqref="E85:E87">
     <cfRule type="beginsWith" dxfId="9" priority="12" operator="beginsWith" text="[pending]">
       <formula>LEFT(E85,LEN("[pending]"))="[pending]"</formula>
     </cfRule>
